--- a/HTML-CSSCheatSheets.xlsx
+++ b/HTML-CSSCheatSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8175CB-37D2-4C23-A574-635A173E077A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86231B5-B076-45FF-A300-4A7E01BAC292}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="12960" windowHeight="6864" xr2:uid="{73BC5531-30D9-4A63-88D8-CB810E402FB6}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{73BC5531-30D9-4A63-88D8-CB810E402FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,12 +382,66 @@
         </r>
       </text>
     </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{CF7A34A3-1FB1-48A0-B46C-7D1DBD712141}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    &lt;form action="firstForm.php" method="post"&gt;
+        &lt;p&gt;&lt;label for="fname"&gt;First Name:&lt;/label&gt;
+            &lt;input type="text" name="fname"&gt;&lt;/p&gt;
+        &lt;p&gt;&lt;label for="lname"&gt;Last Name: &lt;/label&gt;
+            &lt;input type="text" name="lname"&gt;&lt;/p&gt;
+        &lt;input type="hidden" name="first" value="first"&gt;
+        &lt;button type="submit"&gt;Submit&lt;/button&gt;
+    &lt;/form&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{74FEB601-B264-42A2-9F29-CD6B18D0D7EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;input type="radio" name="gender" value="male"&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{DBD61261-46D8-4252-83A3-C49E2CD24792}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;select&gt;
+  &lt;option value="volvo"&gt;Volvo&lt;/option&gt;
+  &lt;option value="saab"&gt;Saab&lt;/option&gt;
+  &lt;option value="mercedes"&gt;Mercedes&lt;/option&gt;
+  &lt;option value="audi"&gt;Audi&lt;/option&gt;
+&lt;/select&gt;</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a / link styles</t>
   </si>
@@ -408,6 +462,15 @@
   </si>
   <si>
     <t>Description list</t>
+  </si>
+  <si>
+    <t>Basic form</t>
+  </si>
+  <si>
+    <t>Radio button</t>
+  </si>
+  <si>
+    <t>Select / dropdown / combobox</t>
   </si>
 </sst>
 </file>
@@ -778,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41460E9D-F5C6-4052-9740-EFD853D64C7E}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,6 +887,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
